--- a/ES-PT_Confidence_Analysis.xlsx
+++ b/ES-PT_Confidence_Analysis.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\u\usr\pro\VSC\python\09_Straker\xml-sax-parser-4-xlif\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B4004F-BE3B-48E1-B539-B44EF9F7F6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1965" yWindow="735" windowWidth="20685" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ES-PT Confidence" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -82,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,22 +141,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -192,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +245,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +297,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,14 +490,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="55.7109375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,133 +512,144 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0.9995302881635922</v>
-      </c>
-      <c r="C2">
-        <v>0.0003925690854839531</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="4">
+        <v>0.99953028816359224</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.9256908548395309E-4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>3.964999042406741E-05</v>
-      </c>
-      <c r="C3">
-        <v>0.9999603476897911</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="4">
+        <v>3.9649990424067412E-5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.99996034768979114</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.999999952881472</v>
-      </c>
-      <c r="C4">
-        <v>4.462822318481873E-08</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="4">
+        <v>0.99999995288147203</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.4628223184818727E-8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>2.456365939282319E-10</v>
-      </c>
-      <c r="C5">
-        <v>0.9999999997534356</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="4">
+        <v>2.4563659392823193E-10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.99999999975343556</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.8465122826283893</v>
-      </c>
-      <c r="C6">
-        <v>0.1524706854218897</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="4">
+        <v>0.84651228262838929</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.15247068542188971</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>7.023223228104742E-10</v>
-      </c>
-      <c r="C7">
-        <v>0.9999999991568359</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="4">
+        <v>7.0232232281047425E-10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.99999999915683591</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>0.9999999999061742</v>
-      </c>
-      <c r="C8">
-        <v>9.368914754285189E-11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="4">
+        <v>0.99999999990617416</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.3689147542851889E-11</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:C8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>